--- a/output/fit_clients/fit_round_395.xlsx
+++ b/output/fit_clients/fit_round_395.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2355689874.752001</v>
+        <v>1934736182.480315</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08777558922387484</v>
+        <v>0.07542259480678724</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03964791004671204</v>
+        <v>0.03228099420015883</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1177844980.831852</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2180073604.575721</v>
+        <v>2488415127.820129</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1372022893494243</v>
+        <v>0.1599126609837452</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03072597229553621</v>
+        <v>0.04833864896201229</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1090036870.248592</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3755164354.316074</v>
+        <v>4533987966.834964</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1087084978163259</v>
+        <v>0.1627219499116846</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03725116059791091</v>
+        <v>0.02540285254734704</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>142</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1877582174.001178</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4169479033.536835</v>
+        <v>3388168220.600253</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09416140641048695</v>
+        <v>0.0785736757024032</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03409873932304204</v>
+        <v>0.03982137446968026</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>146</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2084739509.285332</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2458460277.73834</v>
+        <v>2419116688.596918</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1297531152845331</v>
+        <v>0.09273243680692955</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04015809794041737</v>
+        <v>0.04350668128920784</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>73</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1229230118.863767</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2359543939.226204</v>
+        <v>2957856308.942727</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07682319117034193</v>
+        <v>0.08884816846495286</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03343079782782012</v>
+        <v>0.03082964091894936</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>124</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1179771996.142752</v>
       </c>
     </row>
     <row r="8">
@@ -700,22 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2599200863.104792</v>
+        <v>3828484412.278753</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1980877602670311</v>
+        <v>0.2157189900966219</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02452622429617442</v>
+        <v>0.02906157950318264</v>
       </c>
       <c r="H8" t="b">
         <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>125</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1299600448.107445</v>
       </c>
     </row>
     <row r="9">
@@ -734,22 +682,16 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1714948264.505868</v>
+        <v>2157444720.524536</v>
       </c>
       <c r="F9" t="n">
-        <v>0.120618864018666</v>
+        <v>0.1451448970982742</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02388303004613043</v>
+        <v>0.03256283508928798</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>857474198.4279393</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5884436360.092445</v>
+        <v>4748843084.725728</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2164018324763722</v>
+        <v>0.1976347650688337</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04178122010993198</v>
+        <v>0.04846662585057443</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>166</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2942218347.832761</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2663932811.368326</v>
+        <v>3927413114.339446</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1554158928063372</v>
+        <v>0.1517876746465856</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04090983785564858</v>
+        <v>0.03609658452431741</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>163</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1331966325.250391</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2663530933.316677</v>
+        <v>2423443975.448614</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1343947076651908</v>
+        <v>0.1360272149793555</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05011931519796987</v>
+        <v>0.04694917668360414</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>135</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1331765453.889057</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4121008554.818727</v>
+        <v>4113259289.762572</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07465330264745523</v>
+        <v>0.0974904320092906</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03053390162529703</v>
+        <v>0.02257325689966339</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>132</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2060504326.20401</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3582838188.251676</v>
+        <v>2674232501.729853</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1337060700603337</v>
+        <v>0.1602489244625244</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03100284936075817</v>
+        <v>0.03760448799800963</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>127</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1791419086.368877</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1335114705.879688</v>
+        <v>1232645258.131665</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08894661254835405</v>
+        <v>0.08751666627004275</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03613773892543095</v>
+        <v>0.04112654402433851</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>667557401.0789078</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2777689861.092761</v>
+        <v>2163097247.644089</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1138032161582194</v>
+        <v>0.1155982702753257</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04445245281375967</v>
+        <v>0.03282900985939311</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>81</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1388844936.566469</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4126003228.66952</v>
+        <v>3898205048.28177</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1683952115446666</v>
+        <v>0.1201793882840412</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04608879862231764</v>
+        <v>0.03371585519849837</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>117</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2063001642.728856</v>
       </c>
     </row>
     <row r="18">
@@ -1040,22 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3092001895.520121</v>
+        <v>2572969133.063758</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1198711011048211</v>
+        <v>0.1126953908744899</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02430867935355758</v>
+        <v>0.03319470710218642</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>129</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1546000971.332334</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1061544978.7066</v>
+        <v>1233651402.718519</v>
       </c>
       <c r="F19" t="n">
-        <v>0.138693835839155</v>
+        <v>0.128853491610522</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01760094655861171</v>
+        <v>0.0218224571038742</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>530772533.5892056</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2457093939.727224</v>
+        <v>2753737825.479284</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1383024031571606</v>
+        <v>0.1049073893593376</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01952731481795079</v>
+        <v>0.02160592470729432</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>50</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1228546947.545449</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2548281970.46348</v>
+        <v>2537721373.707714</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07393085116833352</v>
+        <v>0.07856873753575365</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04212897519920102</v>
+        <v>0.03484771451689442</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>32</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1274140968.731287</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2819025454.320111</v>
+        <v>3763823530.08608</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1242390340661507</v>
+        <v>0.1134167097495803</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03814272153406434</v>
+        <v>0.0505960427928069</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>111</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1409512799.544601</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1260664937.891339</v>
+        <v>1456258685.161802</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1616293803866948</v>
+        <v>0.1846685388204415</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04364091605308919</v>
+        <v>0.04287387919226944</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>630332495.2413815</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2513237190.63812</v>
+        <v>3665435203.734335</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1067460411363239</v>
+        <v>0.1097597280407376</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02270308738400724</v>
+        <v>0.02309097992327785</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>116</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1256618663.306922</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1239571881.335351</v>
+        <v>1206035601.90226</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07995083232014646</v>
+        <v>0.1212999104017367</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03054656239973492</v>
+        <v>0.02364463646027244</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>619785949.5390879</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1335563662.203395</v>
+        <v>1314508466.449224</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08061939149688671</v>
+        <v>0.08203357606028673</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02426587937572048</v>
+        <v>0.03720870581556267</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>667781885.3753943</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3659126962.160109</v>
+        <v>3578524463.345956</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1185797343668687</v>
+        <v>0.1118339362021371</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01934492039952255</v>
+        <v>0.02310497846642608</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>101</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1829563508.177615</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2530328221.960328</v>
+        <v>3232907463.710927</v>
       </c>
       <c r="F28" t="n">
-        <v>0.109401076297529</v>
+        <v>0.1416774640349237</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04591363740717888</v>
+        <v>0.03034930080230306</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>127</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1265164081.449299</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4924611300.141613</v>
+        <v>5148729848.089895</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09609918525059727</v>
+        <v>0.09803047628796781</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03573971448615474</v>
+        <v>0.04473612621167632</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>174</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2462305602.917535</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1936269717.106337</v>
+        <v>1937871520.279978</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0856979971162815</v>
+        <v>0.1049840916704384</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03094536198837352</v>
+        <v>0.03911426469028401</v>
       </c>
       <c r="H30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>968134888.7431389</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1482,22 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>995019181.5321755</v>
+        <v>1055356140.313264</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08262286505743389</v>
+        <v>0.08209795281094225</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03366727754706577</v>
+        <v>0.03553094030623204</v>
       </c>
       <c r="H31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>497509590.4952605</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1304321275.687918</v>
+        <v>1498375787.475628</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08523251646638653</v>
+        <v>0.1152572075364267</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03293490941507284</v>
+        <v>0.0287363292067822</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>652160665.6911747</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1920036548.176055</v>
+        <v>1997341727.506029</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1736285146107514</v>
+        <v>0.1558672396865594</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04677027896716949</v>
+        <v>0.04137863227297044</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>117</v>
-      </c>
-      <c r="J33" t="n">
-        <v>960018361.7041018</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1207535637.796853</v>
+        <v>1469195281.204527</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1220234621691129</v>
+        <v>0.09602012131135401</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02130524050153636</v>
+        <v>0.02351780633097073</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>603767822.6997582</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>912039625.1679391</v>
+        <v>1331488434.904592</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08657505192173026</v>
+        <v>0.1042627880469665</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04009933581571438</v>
+        <v>0.03412228717639595</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>456019850.4637136</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2366647527.659298</v>
+        <v>3076184593.602887</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1170839559501271</v>
+        <v>0.1151059103275479</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02125322781088575</v>
+        <v>0.0228927454291572</v>
       </c>
       <c r="H36" t="b">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>100</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1183323796.516927</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1903693777.881874</v>
+        <v>1868634396.064572</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0837656918297382</v>
+        <v>0.1023244919097947</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03927240393028719</v>
+        <v>0.0327073077478942</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>104</v>
-      </c>
-      <c r="J37" t="n">
-        <v>951846902.9742897</v>
       </c>
     </row>
     <row r="38">
@@ -1720,22 +1494,16 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2165431125.67834</v>
+        <v>1861737600.283995</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09731964984056785</v>
+        <v>0.07838351075165104</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03852265105959903</v>
+        <v>0.02584720852686902</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1082715518.112222</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1847641031.404877</v>
+        <v>1741471397.712094</v>
       </c>
       <c r="F39" t="n">
-        <v>0.180237044986889</v>
+        <v>0.1388232327710033</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02984256497301991</v>
+        <v>0.02115303353135762</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>923820533.3668349</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1669975067.484472</v>
+        <v>1584213679.095755</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1427377768418974</v>
+        <v>0.1184387126971376</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0525785297251213</v>
+        <v>0.04155168100603004</v>
       </c>
       <c r="H40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>834987457.4076223</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2872538015.651252</v>
+        <v>2362739049.891614</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1448168568014346</v>
+        <v>0.1279092611665572</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04426117723922041</v>
+        <v>0.03700113504285683</v>
       </c>
       <c r="H41" t="b">
         <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>100</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1436268996.628701</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3157413314.348414</v>
+        <v>2866845004.497121</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1221989255245881</v>
+        <v>0.1088182802133925</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04100345184324045</v>
+        <v>0.03439511522327306</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>130</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1578706628.488085</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2335753780.780842</v>
+        <v>2417341250.058876</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2038110843094854</v>
+        <v>0.1931357452619387</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01563100126578933</v>
+        <v>0.02425991923093165</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>137</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1167876955.588928</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1854895006.230499</v>
+        <v>2213464321.223682</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07792978874692506</v>
+        <v>0.08046643752923448</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02544957060033668</v>
+        <v>0.0326559772628366</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>927447580.5237162</v>
       </c>
     </row>
     <row r="45">
@@ -1958,22 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1598375407.22828</v>
+        <v>2182236844.965361</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1850054693471553</v>
+        <v>0.1646458389650921</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04202987082195132</v>
+        <v>0.05630790438524395</v>
       </c>
       <c r="H45" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>799187654.0508313</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3573223394.167177</v>
+        <v>3454302773.09744</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1640095595273902</v>
+        <v>0.120380729152028</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0430995202837501</v>
+        <v>0.04955616938240023</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>140</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1786611642.206489</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4873483274.427733</v>
+        <v>4593710622.84468</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1796384983654766</v>
+        <v>0.129079205678996</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04908825363112759</v>
+        <v>0.0423466330029774</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>106</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2436741685.84646</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3215277123.892816</v>
+        <v>3478968234.121573</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09946648596128517</v>
+        <v>0.09164728603115947</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02751399053659594</v>
+        <v>0.03455063715854424</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>131</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1607638641.917003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1440588434.236643</v>
+        <v>1854352250.390016</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1496743731358711</v>
+        <v>0.1517656190968291</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03426491081018174</v>
+        <v>0.03394388077174415</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>720294258.3809383</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2839097658.23629</v>
+        <v>3363298495.34342</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1219555297688218</v>
+        <v>0.1192869644164695</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04839107482023196</v>
+        <v>0.05198632877135997</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>134</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1419548900.400593</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1186533751.373652</v>
+        <v>1225990451.844314</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1577460607577923</v>
+        <v>0.1642653859214661</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03965070722612821</v>
+        <v>0.04243083767967862</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>593266929.4415051</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4112007498.955649</v>
+        <v>5173447908.035786</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08890576875186966</v>
+        <v>0.1000035851198913</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0606561896610265</v>
+        <v>0.05677662160846615</v>
       </c>
       <c r="H52" t="b">
         <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>162</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2056003799.376513</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2565300649.908329</v>
+        <v>2805773144.289255</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1237874771104174</v>
+        <v>0.1593398510696356</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02842714727721623</v>
+        <v>0.02932802739905876</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>112</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1282650387.415885</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4792896757.007286</v>
+        <v>3626859254.210425</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1416938687045005</v>
+        <v>0.1457770760090165</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03402703730065986</v>
+        <v>0.04881895341927992</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>129</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2396448504.854869</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3882560986.030406</v>
+        <v>3191764196.972489</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1643415600925123</v>
+        <v>0.1974790563276747</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03196510117979278</v>
+        <v>0.01969229655977221</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>114</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1941280462.736076</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1718911590.929242</v>
+        <v>1350042106.019816</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1549255441372685</v>
+        <v>0.1561343157898709</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0542229667420432</v>
+        <v>0.04648890380943317</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>859455805.2985969</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4512560482.746577</v>
+        <v>4032418491.082286</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1319580988125846</v>
+        <v>0.1534977652379096</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02679403195943389</v>
+        <v>0.02254526491984973</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>125</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2256280372.790995</v>
       </c>
     </row>
     <row r="58">
@@ -2400,22 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1575410910.349346</v>
+        <v>1454951373.146996</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1840909284531506</v>
+        <v>0.148061247182154</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02996205904327752</v>
+        <v>0.02999444223392347</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>787705479.4541136</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4564857935.55242</v>
+        <v>3961628890.914807</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09294021088676802</v>
+        <v>0.08286247778306668</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03170776607705961</v>
+        <v>0.04093105386343529</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>109</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2282428916.499981</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2501306576.370286</v>
+        <v>3118047231.901924</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1588385440845465</v>
+        <v>0.1673568775115988</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02875975967679847</v>
+        <v>0.03019749799206123</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>122</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1250653306.240912</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2420655029.839204</v>
+        <v>2055159423.427583</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1160869781922472</v>
+        <v>0.1473864474517531</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03070541267796631</v>
+        <v>0.03302075433644068</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>136</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1210327550.038821</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2006141241.191832</v>
+        <v>1633076641.791465</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1607085510603898</v>
+        <v>0.1252228966121624</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03056368421508892</v>
+        <v>0.03829544873524899</v>
       </c>
       <c r="H62" t="b">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>1003070679.597597</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3636321062.622261</v>
+        <v>4105589050.951791</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1073431213083278</v>
+        <v>0.09535079229027171</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04766905338958893</v>
+        <v>0.03970379332775789</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>112</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1818160609.916559</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5071787918.437957</v>
+        <v>5290764295.641891</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1361121689401451</v>
+        <v>0.1483112222955767</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02186156228052355</v>
+        <v>0.0237795963888572</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>122</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2535894070.483697</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4499279922.663673</v>
+        <v>4136185066.859386</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1236371263337055</v>
+        <v>0.1143221155476255</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03141490618091509</v>
+        <v>0.02794089501321319</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>141</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2249639950.145041</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4953377500.659299</v>
+        <v>4635131419.910804</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1429771967663932</v>
+        <v>0.1415263709431893</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03685206317770137</v>
+        <v>0.03154700548847568</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>115</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2476688774.986729</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2135306980.262261</v>
+        <v>2873221022.815873</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08731438989326165</v>
+        <v>0.09680427900972365</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03785922849016993</v>
+        <v>0.04276871632541825</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>127</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1067653581.641932</v>
       </c>
     </row>
     <row r="68">
@@ -2740,22 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4127661984.095292</v>
+        <v>5226909704.072658</v>
       </c>
       <c r="F68" t="n">
-        <v>0.143577389987701</v>
+        <v>0.1416436261776894</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03777905557202143</v>
+        <v>0.03669427153894655</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>126</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2063830995.586267</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1626440972.176742</v>
+        <v>1745091428.326383</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1349677484062342</v>
+        <v>0.1678401859439304</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0466015283222852</v>
+        <v>0.04570387160786034</v>
       </c>
       <c r="H69" t="b">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>813220442.7581182</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -2808,22 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2487800260.786353</v>
+        <v>3000361148.280062</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0752944137646881</v>
+        <v>0.06528164916818424</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04205284503766345</v>
+        <v>0.0463669486352365</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>113</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1243900074.136427</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5564284942.698071</v>
+        <v>3577692942.520844</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1550170893386582</v>
+        <v>0.116535693394359</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02106271975466505</v>
+        <v>0.02928528471479823</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>143</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2782142619.167284</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1936982652.768395</v>
+        <v>1577984236.044367</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0721631526334922</v>
+        <v>0.08856711782763106</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05077262980502643</v>
+        <v>0.04580889428760928</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>968491282.9239091</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2784352764.628153</v>
+        <v>3572867255.454701</v>
       </c>
       <c r="F73" t="n">
-        <v>0.06872333316848872</v>
+        <v>0.102856182862724</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04175915221625283</v>
+        <v>0.05159537720589112</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>150</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1392176398.063422</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3631341516.546147</v>
+        <v>3294264322.317673</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1358593979755503</v>
+        <v>0.1723725792941777</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02332012580337293</v>
+        <v>0.02511079929375691</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>134</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1815670769.116483</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2250942728.629459</v>
+        <v>2496655761.691636</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1393357678908296</v>
+        <v>0.1152309158501595</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03283178188230505</v>
+        <v>0.02498640554073591</v>
       </c>
       <c r="H75" t="b">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1125471304.989703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5053069549.241166</v>
+        <v>3601617347.809729</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1018022143358251</v>
+        <v>0.1185138689769343</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02560983578784303</v>
+        <v>0.02353275101719488</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>90</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2526534803.529541</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1616846497.147599</v>
+        <v>1543979681.546536</v>
       </c>
       <c r="F77" t="n">
-        <v>0.153769306117477</v>
+        <v>0.1162265189336934</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02445887830687336</v>
+        <v>0.03042112607085031</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>808423253.5212681</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3885919920.721226</v>
+        <v>3175990405.888284</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1330733802278819</v>
+        <v>0.115398119815975</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0449682722491671</v>
+        <v>0.04640917833755018</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>137</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1942959934.278965</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1171978045.909669</v>
+        <v>1401021720.425444</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1594552556170841</v>
+        <v>0.1394642416169646</v>
       </c>
       <c r="G79" t="n">
-        <v>0.04017286540400141</v>
+        <v>0.02796942180545218</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>585988999.8161681</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5283505835.385116</v>
+        <v>5234913798.331178</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08349427824970035</v>
+        <v>0.0745967454148944</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03614139597718371</v>
+        <v>0.0268014148833171</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>85</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2641752981.03136</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4358953636.7221</v>
+        <v>4386480650.55347</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0835496396909068</v>
+        <v>0.1330731388624316</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02283260749596025</v>
+        <v>0.02571339405374886</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>89</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2179476794.910897</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4867229856.895342</v>
+        <v>4760499479.825125</v>
       </c>
       <c r="F82" t="n">
-        <v>0.14490015811154</v>
+        <v>0.2017124799639802</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02670102006459324</v>
+        <v>0.02920048824395994</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>139</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2433614919.827418</v>
       </c>
     </row>
     <row r="83">
@@ -3250,22 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2163611389.246445</v>
+        <v>2148338712.407132</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1492690568040344</v>
+        <v>0.1084777192490314</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0351446433560753</v>
+        <v>0.03328233862439278</v>
       </c>
       <c r="H83" t="b">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
         <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1081805700.279776</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1871248215.336989</v>
+        <v>2394569510.460181</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1029861111477835</v>
+        <v>0.09574208083487783</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05068469502788632</v>
+        <v>0.04202915810790923</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>5</v>
-      </c>
-      <c r="J84" t="n">
-        <v>935624131.5508481</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3275831211.305458</v>
+        <v>3424200403.028454</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1256814229104212</v>
+        <v>0.1572945785528723</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03462651480734109</v>
+        <v>0.04851792219524911</v>
       </c>
       <c r="H85" t="b">
         <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>148</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1637915696.270782</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2651721126.569498</v>
+        <v>1831943616.976005</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1105514653867892</v>
+        <v>0.1219078255859943</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02317596297169124</v>
+        <v>0.02197684183377515</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>52</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1325860681.552272</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>963550145.9050732</v>
+        <v>1004217159.868559</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1465248786489741</v>
+        <v>0.1537723653038174</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02768890657911718</v>
+        <v>0.03283193081901212</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>481775067.9550956</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2552600020.633419</v>
+        <v>3700773857.903694</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1161270561642583</v>
+        <v>0.1564325224026374</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03985085953275611</v>
+        <v>0.02424408189364987</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>155</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1276299996.550736</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3284530154.785396</v>
+        <v>3047798660.914994</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1112820838426232</v>
+        <v>0.1391406988200095</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04138384343604684</v>
+        <v>0.04123466027989728</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>132</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1642265094.672827</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1946888882.976074</v>
+        <v>2091042682.896432</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1116459707035748</v>
+        <v>0.0922211026253401</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05160152794787772</v>
+        <v>0.03461208499413533</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>973444502.0087452</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1427751907.521029</v>
+        <v>1313760523.039437</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1289993123182999</v>
+        <v>0.120165711982279</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04315513764468222</v>
+        <v>0.06076234228127887</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>713876002.3460758</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2730455316.543537</v>
+        <v>3004526589.561083</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1034741428481218</v>
+        <v>0.08955752150881266</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04508935274832959</v>
+        <v>0.04030780157182062</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>111</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1365227659.656071</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4023277026.408803</v>
+        <v>4762975165.767254</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09250249968182711</v>
+        <v>0.1312094441958743</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05462720409456497</v>
+        <v>0.03850996340067789</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>122</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2011638512.345099</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2201443122.783092</v>
+        <v>2362751928.164268</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1562027755316885</v>
+        <v>0.1613305121991853</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03885910842561665</v>
+        <v>0.03705338765270018</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>2</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1100721585.948393</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2440874001.957188</v>
+        <v>3084208822.693625</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1361353256384957</v>
+        <v>0.1024744492147241</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0400425967278813</v>
+        <v>0.04523973593981464</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>95</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1220437041.417073</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1499485631.736038</v>
+        <v>1810640917.824975</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1080303995617573</v>
+        <v>0.09240095148964442</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03364878249664604</v>
+        <v>0.04735134944428148</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>749742856.3041027</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4601211125.487153</v>
+        <v>3408863652.394011</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1557689635585071</v>
+        <v>0.1260109849032181</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01862428920139191</v>
+        <v>0.02588408827033429</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>127</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2300605667.487363</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2393607914.816941</v>
+        <v>3402617707.1333</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08776402138362982</v>
+        <v>0.09810115206811068</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03197332780385678</v>
+        <v>0.03108097272059272</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>110</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1196803901.027557</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2096701052.229453</v>
+        <v>3064683060.46682</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1423476657979916</v>
+        <v>0.1169586251257208</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02658984149117317</v>
+        <v>0.02585662639116775</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>124</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1048350446.642103</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3726138886.141825</v>
+        <v>3022907113.916088</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1720962384940466</v>
+        <v>0.1683718802650492</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02135313097620057</v>
+        <v>0.0251929869571733</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>124</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1863069491.895938</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3183782960.087296</v>
+        <v>2778593527.576427</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1647656894401827</v>
+        <v>0.2204559239999126</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0397000532182001</v>
+        <v>0.05860975726430891</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>160</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1591891593.377184</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_395.xlsx
+++ b/output/fit_clients/fit_round_395.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1934736182.480315</v>
+        <v>2135767103.248845</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07542259480678724</v>
+        <v>0.09351216424277438</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03228099420015883</v>
+        <v>0.04020304577359565</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -514,13 +514,13 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2488415127.820129</v>
+        <v>1804938330.773371</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1599126609837452</v>
+        <v>0.119114973120988</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04833864896201229</v>
+        <v>0.04078726933998863</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4533987966.834964</v>
+        <v>4361952614.48299</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1627219499116846</v>
+        <v>0.1167593240912208</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02540285254734704</v>
+        <v>0.02921369122740408</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -570,13 +570,13 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3388168220.600253</v>
+        <v>4124682806.043368</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0785736757024032</v>
+        <v>0.1004123230974019</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03982137446968026</v>
+        <v>0.04613925512719193</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2419116688.596918</v>
+        <v>2157687492.106183</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09273243680692955</v>
+        <v>0.1172365015535222</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04350668128920784</v>
+        <v>0.04087372506717789</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -626,13 +626,13 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2957856308.942727</v>
+        <v>2481416198.999034</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08884816846495286</v>
+        <v>0.09349580322887045</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03082964091894936</v>
+        <v>0.03246224869964089</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,22 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3828484412.278753</v>
+        <v>2596073672.222692</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2157189900966219</v>
+        <v>0.1390223665263368</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02906157950318264</v>
+        <v>0.0221067128366764</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2157444720.524536</v>
+        <v>2117415065.470696</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1451448970982742</v>
+        <v>0.1342594615761328</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03256283508928798</v>
+        <v>0.02771140885514333</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,19 +704,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4748843084.725728</v>
+        <v>4508942990.655696</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1976347650688337</v>
+        <v>0.2041739907484659</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04846662585057443</v>
+        <v>0.04605194008767816</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -738,13 +738,13 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3927413114.339446</v>
+        <v>3193938046.38252</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1517876746465856</v>
+        <v>0.1825815331976154</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03609658452431741</v>
+        <v>0.03714888162028338</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2423443975.448614</v>
+        <v>2286096584.174967</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1360272149793555</v>
+        <v>0.1471329945248641</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04694917668360414</v>
+        <v>0.04624598437272176</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,19 +788,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4113259289.762572</v>
+        <v>5223376812.603005</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0974904320092906</v>
+        <v>0.0668981647160982</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02257325689966339</v>
+        <v>0.02954952766053625</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2674232501.729853</v>
+        <v>2862940411.119791</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1602489244625244</v>
+        <v>0.1638427065371029</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03760448799800963</v>
+        <v>0.03625940219211711</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -850,13 +850,13 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1232645258.131665</v>
+        <v>1712214227.838956</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08751666627004275</v>
+        <v>0.07619848492790127</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04112654402433851</v>
+        <v>0.04385429317507106</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2163097247.644089</v>
+        <v>2617706790.251008</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1155982702753257</v>
+        <v>0.1046272738612273</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03282900985939311</v>
+        <v>0.05018696025598272</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3898205048.28177</v>
+        <v>5043899397.700508</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1201793882840412</v>
+        <v>0.1701198341300016</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03371585519849837</v>
+        <v>0.04544700998930425</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2572969133.063758</v>
+        <v>2455961510.227716</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1126953908744899</v>
+        <v>0.1368352259772069</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03319470710218642</v>
+        <v>0.03229491819658024</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1233651402.718519</v>
+        <v>1151503969.532272</v>
       </c>
       <c r="F19" t="n">
-        <v>0.128853491610522</v>
+        <v>0.1835580211446672</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0218224571038742</v>
+        <v>0.02638687015131599</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -990,13 +990,13 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2753737825.479284</v>
+        <v>2120592411.247578</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1049073893593376</v>
+        <v>0.152697448158387</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02160592470729432</v>
+        <v>0.02511354541577867</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2537721373.707714</v>
+        <v>1942504676.591735</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07856873753575365</v>
+        <v>0.08980070621178121</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03484771451689442</v>
+        <v>0.04501139988970575</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,22 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3763823530.08608</v>
+        <v>3051059207.009973</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1134167097495803</v>
+        <v>0.1046634778255227</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0505960427928069</v>
+        <v>0.05010926047884998</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1456258685.161802</v>
+        <v>1309287507.53388</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1846685388204415</v>
+        <v>0.1748852808181532</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04287387919226944</v>
+        <v>0.03979061035554551</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3665435203.734335</v>
+        <v>2856522276.192243</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1097597280407376</v>
+        <v>0.09195051240257829</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02309097992327785</v>
+        <v>0.03310828815378854</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1206035601.90226</v>
+        <v>1274605837.416257</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1212999104017367</v>
+        <v>0.1176649347665971</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02364463646027244</v>
+        <v>0.0298063375506835</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1158,13 +1158,13 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1314508466.449224</v>
+        <v>1176565730.071753</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08203357606028673</v>
+        <v>0.115713180244266</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03720870581556267</v>
+        <v>0.02795756529832277</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1186,16 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3578524463.345956</v>
+        <v>3300741626.765938</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1118339362021371</v>
+        <v>0.1081279182846602</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02310497846642608</v>
+        <v>0.02313025371947815</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3232907463.710927</v>
+        <v>2410667670.855645</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1416774640349237</v>
+        <v>0.1229175736623431</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03034930080230306</v>
+        <v>0.03692797344550763</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5148729848.089895</v>
+        <v>5541910313.139465</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09803047628796781</v>
+        <v>0.1349897803209313</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04473612621167632</v>
+        <v>0.0353608172705072</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1937871520.279978</v>
+        <v>1547718806.24713</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1049840916704384</v>
+        <v>0.08681320221648497</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03911426469028401</v>
+        <v>0.03002466589398238</v>
       </c>
       <c r="H30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1055356140.313264</v>
+        <v>1216105362.604019</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08209795281094225</v>
+        <v>0.08473136411161457</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03553094030623204</v>
+        <v>0.04767351995624117</v>
       </c>
       <c r="H31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1498375787.475628</v>
+        <v>1712771621.880693</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1152572075364267</v>
+        <v>0.1176986701044006</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0287363292067822</v>
+        <v>0.02558695515994043</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1354,13 +1354,13 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1997341727.506029</v>
+        <v>2857486598.382932</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1558672396865594</v>
+        <v>0.1497907292459085</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04137863227297044</v>
+        <v>0.05678166913890949</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1469195281.204527</v>
+        <v>1174022771.368995</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09602012131135401</v>
+        <v>0.112587959328717</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02351780633097073</v>
+        <v>0.01912766340350061</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1331488434.904592</v>
+        <v>905436530.362146</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1042627880469665</v>
+        <v>0.107472038845497</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03412228717639595</v>
+        <v>0.0279576758019429</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3076184593.602887</v>
+        <v>1998889208.943475</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1151059103275479</v>
+        <v>0.1274282372861669</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0228927454291572</v>
+        <v>0.02705655300147682</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1466,13 +1466,13 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1868634396.064572</v>
+        <v>1888440198.619776</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1023244919097947</v>
+        <v>0.1015680723470231</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0327073077478942</v>
+        <v>0.04091520312542495</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1861737600.283995</v>
+        <v>1346313446.146356</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07838351075165104</v>
+        <v>0.1082411593081119</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02584720852686902</v>
+        <v>0.03657958416532169</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1741471397.712094</v>
+        <v>1711823610.411422</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1388232327710033</v>
+        <v>0.1932441365391006</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02115303353135762</v>
+        <v>0.03029507708143518</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,22 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1584213679.095755</v>
+        <v>1291046091.059644</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1184387126971376</v>
+        <v>0.1182339839463943</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04155168100603004</v>
+        <v>0.05692047107061778</v>
       </c>
       <c r="H40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1572,22 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2362739049.891614</v>
+        <v>2501442312.82808</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1279092611665572</v>
+        <v>0.1148335042758898</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03700113504285683</v>
+        <v>0.0307498341960937</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2866845004.497121</v>
+        <v>2778540876.81039</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1088182802133925</v>
+        <v>0.1159487474352297</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03439511522327306</v>
+        <v>0.04658491851944446</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2417341250.058876</v>
+        <v>2625196137.455585</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1931357452619387</v>
+        <v>0.1928284361037713</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02425991923093165</v>
+        <v>0.01815610557788923</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1662,13 +1662,13 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2213464321.223682</v>
+        <v>1690755004.628961</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08046643752923448</v>
+        <v>0.09059921206389501</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0326559772628366</v>
+        <v>0.02802694974672516</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,22 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2182236844.965361</v>
+        <v>1778536979.838292</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1646458389650921</v>
+        <v>0.1199503268131054</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05630790438524395</v>
+        <v>0.0423426960449478</v>
       </c>
       <c r="H45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3454302773.09744</v>
+        <v>5143409819.338351</v>
       </c>
       <c r="F46" t="n">
-        <v>0.120380729152028</v>
+        <v>0.1189098654724065</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04955616938240023</v>
+        <v>0.05863965726395533</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4593710622.84468</v>
+        <v>3972347834.208999</v>
       </c>
       <c r="F47" t="n">
-        <v>0.129079205678996</v>
+        <v>0.1370865463653142</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0423466330029774</v>
+        <v>0.04440138322444916</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1774,13 +1774,13 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3478968234.121573</v>
+        <v>2990815731.727215</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09164728603115947</v>
+        <v>0.08941872770478573</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03455063715854424</v>
+        <v>0.02449940833095628</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1854352250.390016</v>
+        <v>1667213845.279635</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1517656190968291</v>
+        <v>0.1573112255854858</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03394388077174415</v>
+        <v>0.03662659027350514</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3363298495.34342</v>
+        <v>3991301494.195575</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1192869644164695</v>
+        <v>0.1384432407132668</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05198632877135997</v>
+        <v>0.04601879729960268</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1858,13 +1858,13 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1225990451.844314</v>
+        <v>1465664089.252474</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1642653859214661</v>
+        <v>0.1454451394448732</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04243083767967862</v>
+        <v>0.04068129949795956</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,22 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5173447908.035786</v>
+        <v>4418196115.900434</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1000035851198913</v>
+        <v>0.1209541454145558</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05677662160846615</v>
+        <v>0.04916727617921215</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2805773144.289255</v>
+        <v>2783242925.719156</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1593398510696356</v>
+        <v>0.1576649924250832</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02932802739905876</v>
+        <v>0.03428064240949452</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,19 +1936,19 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3626859254.210425</v>
+        <v>4903653115.621315</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1457770760090165</v>
+        <v>0.1482162250315451</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04881895341927992</v>
+        <v>0.03949921341718295</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3191764196.972489</v>
+        <v>3342115987.413802</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1974790563276747</v>
+        <v>0.155374022543355</v>
       </c>
       <c r="G55" t="n">
-        <v>0.01969229655977221</v>
+        <v>0.02749587488636993</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1350042106.019816</v>
+        <v>1518188040.566854</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1561343157898709</v>
+        <v>0.1451367030483727</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04648890380943317</v>
+        <v>0.03548824301380833</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4032418491.082286</v>
+        <v>3768471634.898767</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1534977652379096</v>
+        <v>0.1539954288265162</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02254526491984973</v>
+        <v>0.01928918626529231</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1454951373.146996</v>
+        <v>1185906092.149599</v>
       </c>
       <c r="F58" t="n">
-        <v>0.148061247182154</v>
+        <v>0.1249806391879767</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02999444223392347</v>
+        <v>0.02465529352045958</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3961628890.914807</v>
+        <v>3578663563.700399</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08286247778306668</v>
+        <v>0.1244551768901041</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04093105386343529</v>
+        <v>0.0372823617403183</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3118047231.901924</v>
+        <v>3688440824.85826</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1673568775115988</v>
+        <v>0.1929994361568887</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03019749799206123</v>
+        <v>0.02211180566944064</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2138,13 +2138,13 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2055159423.427583</v>
+        <v>2199085271.088863</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1473864474517531</v>
+        <v>0.1413199478066054</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03302075433644068</v>
+        <v>0.0293474625687291</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,22 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1633076641.791465</v>
+        <v>1669027083.57688</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1252228966121624</v>
+        <v>0.1624416579934974</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03829544873524899</v>
+        <v>0.03456800597071029</v>
       </c>
       <c r="H62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2188,19 +2188,19 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4105589050.951791</v>
+        <v>4249894163.543036</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09535079229027171</v>
+        <v>0.06957381770517759</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03970379332775789</v>
+        <v>0.03374100335571311</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5290764295.641891</v>
+        <v>5306352942.435517</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1483112222955767</v>
+        <v>0.1211423086910095</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0237795963888572</v>
+        <v>0.0231463513835976</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4136185066.859386</v>
+        <v>3864339412.42304</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1143221155476255</v>
+        <v>0.1635403977437701</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02794089501321319</v>
+        <v>0.02341435032203652</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2278,16 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4635131419.910804</v>
+        <v>4122655791.256921</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1415263709431893</v>
+        <v>0.1471152571623809</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03154700548847568</v>
+        <v>0.04238369759160477</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2873221022.815873</v>
+        <v>2137144685.887346</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09680427900972365</v>
+        <v>0.09987214139869457</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04276871632541825</v>
+        <v>0.04608526489012989</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2334,13 +2334,13 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5226909704.072658</v>
+        <v>4821521971.124905</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1416436261776894</v>
+        <v>0.1498828302080952</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03669427153894655</v>
+        <v>0.03768349009065981</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
@@ -2356,22 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1745091428.326383</v>
+        <v>2293448285.195356</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1678401859439304</v>
+        <v>0.1280760781983503</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04570387160786034</v>
+        <v>0.03771631065358202</v>
       </c>
       <c r="H69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3000361148.280062</v>
+        <v>2448684636.740499</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06528164916818424</v>
+        <v>0.08132776779399685</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0463669486352365</v>
+        <v>0.04912305028261175</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3577692942.520844</v>
+        <v>4592315053.652442</v>
       </c>
       <c r="F71" t="n">
-        <v>0.116535693394359</v>
+        <v>0.1435180497996463</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02928528471479823</v>
+        <v>0.02186660025145678</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1577984236.044367</v>
+        <v>1967183716.543455</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08856711782763106</v>
+        <v>0.1066647829542004</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04580889428760928</v>
+        <v>0.03820849460009425</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3572867255.454701</v>
+        <v>2574941854.298264</v>
       </c>
       <c r="F73" t="n">
-        <v>0.102856182862724</v>
+        <v>0.1081427309939084</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05159537720589112</v>
+        <v>0.05143967521932175</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2502,13 +2502,13 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3294264322.317673</v>
+        <v>3502002052.698822</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1723725792941777</v>
+        <v>0.1717711610810215</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02511079929375691</v>
+        <v>0.02262486973306218</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,22 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2496655761.691636</v>
+        <v>1583671525.922461</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1152309158501595</v>
+        <v>0.1118065085368543</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02498640554073591</v>
+        <v>0.03076072013266568</v>
       </c>
       <c r="H75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -2558,16 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3601617347.809729</v>
+        <v>4703378193.609173</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1185138689769343</v>
+        <v>0.1107883539011195</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02353275101719488</v>
+        <v>0.03282007376848808</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1543979681.546536</v>
+        <v>1863963224.940575</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1162265189336934</v>
+        <v>0.121910487351415</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03042112607085031</v>
+        <v>0.02607409610351618</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3175990405.888284</v>
+        <v>4276357804.305404</v>
       </c>
       <c r="F78" t="n">
-        <v>0.115398119815975</v>
+        <v>0.1139768919298103</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04640917833755018</v>
+        <v>0.05314488658731152</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1401021720.425444</v>
+        <v>1200611099.768844</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1394642416169646</v>
+        <v>0.1493600126980401</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02796942180545218</v>
+        <v>0.0303190452057323</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5234913798.331178</v>
+        <v>5568518637.960783</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0745967454148944</v>
+        <v>0.1032287279270149</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0268014148833171</v>
+        <v>0.03574739438565795</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2698,13 +2698,13 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4386480650.55347</v>
+        <v>4867512238.693216</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1330731388624316</v>
+        <v>0.1105253315280636</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02571339405374886</v>
+        <v>0.03208818031362237</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4760499479.825125</v>
+        <v>4255788574.519053</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2017124799639802</v>
+        <v>0.1882283359033387</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02920048824395994</v>
+        <v>0.02474723932137611</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,22 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2148338712.407132</v>
+        <v>2262836181.091211</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1084777192490314</v>
+        <v>0.1276314079545313</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03328233862439278</v>
+        <v>0.03902233067110668</v>
       </c>
       <c r="H83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2782,13 +2782,13 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2394569510.460181</v>
+        <v>2417426760.557832</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09574208083487783</v>
+        <v>0.08842844387816297</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04202915810790923</v>
+        <v>0.04409783299953323</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,22 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3424200403.028454</v>
+        <v>2847588285.581404</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1572945785528723</v>
+        <v>0.1370636794294742</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04851792219524911</v>
+        <v>0.03706109410012627</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1831943616.976005</v>
+        <v>1927655579.271446</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1219078255859943</v>
+        <v>0.112047124460093</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02197684183377515</v>
+        <v>0.02045796343884434</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1004217159.868559</v>
+        <v>1084641953.19638</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1537723653038174</v>
+        <v>0.1907536448282727</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03283193081901212</v>
+        <v>0.02840930990211617</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3700773857.903694</v>
+        <v>3047781397.089973</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1564325224026374</v>
+        <v>0.1356404083433462</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02424408189364987</v>
+        <v>0.02940374131284384</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3047798660.914994</v>
+        <v>2404711554.283101</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1391406988200095</v>
+        <v>0.1525895644007568</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04123466027989728</v>
+        <v>0.02544536919142039</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2091042682.896432</v>
+        <v>1328639103.343328</v>
       </c>
       <c r="F90" t="n">
-        <v>0.0922211026253401</v>
+        <v>0.1309523463378171</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03461208499413533</v>
+        <v>0.04674391191138805</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1313760523.039437</v>
+        <v>1490880909.799206</v>
       </c>
       <c r="F91" t="n">
-        <v>0.120165711982279</v>
+        <v>0.1407030661554036</v>
       </c>
       <c r="G91" t="n">
-        <v>0.06076234228127887</v>
+        <v>0.06181702864312924</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>3004526589.561083</v>
+        <v>2385837896.833738</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08955752150881266</v>
+        <v>0.1033462463763467</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04030780157182062</v>
+        <v>0.04127508409642348</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4762975165.767254</v>
+        <v>4665096079.176615</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1312094441958743</v>
+        <v>0.1017674144415862</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03850996340067789</v>
+        <v>0.05375564191867688</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2362751928.164268</v>
+        <v>2167143743.589892</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1613305121991853</v>
+        <v>0.1162245166215019</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03705338765270018</v>
+        <v>0.03634171547568327</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3084208822.693625</v>
+        <v>2256466763.810845</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1024744492147241</v>
+        <v>0.1135507899495129</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04523973593981464</v>
+        <v>0.05289314100353584</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3118,13 +3118,13 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1810640917.824975</v>
+        <v>2401754123.962237</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09240095148964442</v>
+        <v>0.1338489452148549</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04735134944428148</v>
+        <v>0.04579032020777707</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3408863652.394011</v>
+        <v>5061048747.074066</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1260109849032181</v>
+        <v>0.1288526226667236</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02588408827033429</v>
+        <v>0.02822745348700715</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3402617707.1333</v>
+        <v>2968232449.999636</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09810115206811068</v>
+        <v>0.09331571596127061</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03108097272059272</v>
+        <v>0.02426472757097657</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3202,13 +3202,13 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3064683060.46682</v>
+        <v>2107083498.490454</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1169586251257208</v>
+        <v>0.1219763710572255</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02585662639116775</v>
+        <v>0.02273300920410651</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3022907113.916088</v>
+        <v>4190604427.440506</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1683718802650492</v>
+        <v>0.170774009998447</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0251929869571733</v>
+        <v>0.02710028011372883</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3258,13 +3258,13 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2778593527.576427</v>
+        <v>3445164462.675842</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2204559239999126</v>
+        <v>0.2160047071759717</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05860975726430891</v>
+        <v>0.05369305135275506</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_395.xlsx
+++ b/output/fit_clients/fit_round_395.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2135767103.248845</v>
+        <v>1630929824.720248</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09351216424277438</v>
+        <v>0.1110053045210494</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04020304577359565</v>
+        <v>0.0423336819541963</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -514,17 +536,24 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1804938330.773371</v>
+        <v>2061693605.292086</v>
       </c>
       <c r="F3" t="n">
-        <v>0.119114973120988</v>
+        <v>0.1799968889116227</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04078726933998863</v>
+        <v>0.03552550271482887</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4361952614.48299</v>
+        <v>4889560078.610492</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1167593240912208</v>
+        <v>0.14722834291891</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02921369122740408</v>
+        <v>0.03437275978150556</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>201</v>
+      </c>
+      <c r="J4" t="n">
+        <v>395</v>
+      </c>
+      <c r="K4" t="n">
+        <v>51.16997455136846</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +602,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4124682806.043368</v>
+        <v>2579865896.696247</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1004123230974019</v>
+        <v>0.1089216185451892</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04613925512719193</v>
+        <v>0.04720675499019692</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>161</v>
+      </c>
+      <c r="J5" t="n">
+        <v>394</v>
+      </c>
+      <c r="K5" t="n">
+        <v>29.30931948894858</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +639,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2157687492.106183</v>
+        <v>2056976292.99987</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1172365015535222</v>
+        <v>0.1148821453303892</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04087372506717789</v>
+        <v>0.05679951481307911</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +674,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2481416198.999034</v>
+        <v>2342356817.447306</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09349580322887045</v>
+        <v>0.07537073070652603</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03246224869964089</v>
+        <v>0.03346198951283006</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -654,16 +715,25 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2596073672.222692</v>
+        <v>2558976649.76342</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1390223665263368</v>
+        <v>0.1966726394511762</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0221067128366764</v>
+        <v>0.02953746811722191</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>108</v>
+      </c>
+      <c r="J8" t="n">
+        <v>394</v>
+      </c>
+      <c r="K8" t="n">
+        <v>28.21333419658868</v>
       </c>
     </row>
     <row r="9">
@@ -676,23 +746,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2117415065.470696</v>
+        <v>1602111540.767893</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1342594615761328</v>
+        <v>0.1672045986682794</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02771140885514333</v>
+        <v>0.03379086954283192</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,23 +781,30 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4508942990.655696</v>
+        <v>5275196543.102517</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2041739907484659</v>
+        <v>0.1417889307274908</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04605194008767816</v>
+        <v>0.0417045070242904</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
+      <c r="I10" t="n">
+        <v>321</v>
+      </c>
+      <c r="J10" t="n">
+        <v>395</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -732,23 +816,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3193938046.38252</v>
+        <v>4055673735.900023</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1825815331976154</v>
+        <v>0.1446553631548406</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03714888162028338</v>
+        <v>0.04623647831741658</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>165</v>
+      </c>
+      <c r="J11" t="n">
+        <v>395</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2286096584.174967</v>
+        <v>2504178809.504218</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1471329945248641</v>
+        <v>0.1960297817880678</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04624598437272176</v>
+        <v>0.04845930102431231</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +886,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5223376812.603005</v>
+        <v>4833461347.378541</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0668981647160982</v>
+        <v>0.0991042632689849</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02954952766053625</v>
+        <v>0.02957316555371785</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>206</v>
+      </c>
+      <c r="J13" t="n">
+        <v>394</v>
+      </c>
+      <c r="K13" t="n">
+        <v>47.90627039612568</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +923,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2862940411.119791</v>
+        <v>2879360449.133998</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1638427065371029</v>
+        <v>0.1660488442108986</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03625940219211711</v>
+        <v>0.04101388057849687</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>81</v>
+      </c>
+      <c r="J14" t="n">
+        <v>387</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -850,17 +964,24 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1712214227.838956</v>
+        <v>1813298252.433315</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07619848492790127</v>
+        <v>0.07144223744601134</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04385429317507106</v>
+        <v>0.04332179424489633</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +993,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2617706790.251008</v>
+        <v>2183367689.437392</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1046272738612273</v>
+        <v>0.09460832951388898</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05018696025598272</v>
+        <v>0.04666957426279227</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1028,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5043899397.700508</v>
+        <v>4652547286.45298</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1701198341300016</v>
+        <v>0.1610481006504184</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04544700998930425</v>
+        <v>0.03336046121152073</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>190</v>
+      </c>
+      <c r="J17" t="n">
+        <v>395</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,22 +1063,31 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2455961510.227716</v>
+        <v>3385846220.380664</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1368352259772069</v>
+        <v>0.1368096238049641</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03229491819658024</v>
+        <v>0.03141600502689191</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>96</v>
+      </c>
+      <c r="J18" t="n">
+        <v>395</v>
+      </c>
+      <c r="K18" t="n">
+        <v>55.59996095475299</v>
       </c>
     </row>
     <row r="19">
@@ -956,23 +1100,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1151503969.532272</v>
+        <v>1159393856.127155</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1835580211446672</v>
+        <v>0.1429961195607162</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02638687015131599</v>
+        <v>0.01990913708276408</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1135,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2120592411.247578</v>
+        <v>1931935610.223661</v>
       </c>
       <c r="F20" t="n">
-        <v>0.152697448158387</v>
+        <v>0.1276407526167849</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02511354541577867</v>
+        <v>0.03075927414289036</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1170,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1942504676.591735</v>
+        <v>2569180917.261579</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08980070621178121</v>
+        <v>0.07666963303225378</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04501139988970575</v>
+        <v>0.03620389961196831</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1046,17 +1211,24 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3051059207.009973</v>
+        <v>3465000365.245163</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1046634778255227</v>
+        <v>0.1190070742345689</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05010926047884998</v>
+        <v>0.03498115897263959</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>108</v>
+      </c>
+      <c r="J22" t="n">
+        <v>393</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1074,17 +1246,24 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1309287507.53388</v>
+        <v>1448161331.298509</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1748852808181532</v>
+        <v>0.1392027494489266</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03979061035554551</v>
+        <v>0.04937347083354184</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,16 +1281,25 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2856522276.192243</v>
+        <v>3141839662.446288</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09195051240257829</v>
+        <v>0.1015016926649461</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03310828815378854</v>
+        <v>0.02822493327634143</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>123</v>
+      </c>
+      <c r="J24" t="n">
+        <v>394</v>
+      </c>
+      <c r="K24" t="n">
+        <v>36.74471551426622</v>
       </c>
     </row>
     <row r="25">
@@ -1130,17 +1318,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1274605837.416257</v>
+        <v>1163783909.89286</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1176649347665971</v>
+        <v>0.09280842083456807</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0298063375506835</v>
+        <v>0.02340285439572323</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1347,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1176565730.071753</v>
+        <v>1248867622.551588</v>
       </c>
       <c r="F26" t="n">
-        <v>0.115713180244266</v>
+        <v>0.1232192325945478</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02795756529832277</v>
+        <v>0.03255239186820505</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1382,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3300741626.765938</v>
+        <v>3186014297.360731</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1081279182846602</v>
+        <v>0.1171325071764813</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02313025371947815</v>
+        <v>0.0173876517838126</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>165</v>
+      </c>
+      <c r="J27" t="n">
+        <v>394</v>
+      </c>
+      <c r="K27" t="n">
+        <v>38.35757685923431</v>
       </c>
     </row>
     <row r="28">
@@ -1208,23 +1419,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2410667670.855645</v>
+        <v>3741205038.363832</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1229175736623431</v>
+        <v>0.1005691759265506</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03692797344550763</v>
+        <v>0.03295785370746681</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>95</v>
+      </c>
+      <c r="J28" t="n">
+        <v>395</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1242,17 +1460,24 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5541910313.139465</v>
+        <v>4770978594.003873</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1349897803209313</v>
+        <v>0.1178413126274486</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0353608172705072</v>
+        <v>0.03156906333226443</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
       </c>
+      <c r="I29" t="n">
+        <v>336</v>
+      </c>
+      <c r="J29" t="n">
+        <v>395</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1264,23 +1489,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1547718806.24713</v>
+        <v>1577156193.207212</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08681320221648497</v>
+        <v>0.116598433525528</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03002466589398238</v>
+        <v>0.03187422176476273</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1524,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1216105362.604019</v>
+        <v>927286514.0770932</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08473136411161457</v>
+        <v>0.09030588467684297</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04767351995624117</v>
+        <v>0.04730099193120046</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1559,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1712771621.880693</v>
+        <v>1185761453.280717</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1176986701044006</v>
+        <v>0.102842385353006</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02558695515994043</v>
+        <v>0.02515511128094559</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1354,17 +1600,24 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2857486598.382932</v>
+        <v>2989279988.871313</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1497907292459085</v>
+        <v>0.1802218504949242</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05678166913890949</v>
+        <v>0.04164381220246804</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1629,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1174022771.368995</v>
+        <v>1261585945.254936</v>
       </c>
       <c r="F34" t="n">
-        <v>0.112587959328717</v>
+        <v>0.09786263385214049</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01912766340350061</v>
+        <v>0.01919617990091148</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1664,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>905436530.362146</v>
+        <v>1151917192.922037</v>
       </c>
       <c r="F35" t="n">
-        <v>0.107472038845497</v>
+        <v>0.07863800280062601</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0279576758019429</v>
+        <v>0.04442501354278103</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1699,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>1998889208.943475</v>
+        <v>2520495250.962187</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1274282372861669</v>
+        <v>0.1160820454872653</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02705655300147682</v>
+        <v>0.02030579716473309</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1734,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1888440198.619776</v>
+        <v>2428594474.107615</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1015680723470231</v>
+        <v>0.1036948258524096</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04091520312542495</v>
+        <v>0.03988309311126778</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1769,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1346313446.146356</v>
+        <v>1346963860.749671</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1082411593081119</v>
+        <v>0.1002018140344205</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03657958416532169</v>
+        <v>0.03834878406397779</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1522,17 +1810,24 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1711823610.411422</v>
+        <v>1385498981.247011</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1932441365391006</v>
+        <v>0.1212897649704267</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03029507708143518</v>
+        <v>0.02434108666559956</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1845,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1291046091.059644</v>
+        <v>1572983065.068201</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1182339839463943</v>
+        <v>0.1444822488535094</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05692047107061778</v>
+        <v>0.04395632465426869</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1578,17 +1880,24 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2501442312.82808</v>
+        <v>2710754372.895335</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1148335042758898</v>
+        <v>0.1554774586920149</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0307498341960937</v>
+        <v>0.04723014769742816</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1909,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2778540876.81039</v>
+        <v>3694058546.299594</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1159487474352297</v>
+        <v>0.0804514225467141</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04658491851944446</v>
+        <v>0.03007663045064381</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>171</v>
+      </c>
+      <c r="J42" t="n">
+        <v>395</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1634,17 +1950,24 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2625196137.455585</v>
+        <v>3071932751.310133</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1928284361037713</v>
+        <v>0.1739508797715018</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01815610557788923</v>
+        <v>0.01851997599688242</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1662,17 +1985,24 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1690755004.628961</v>
+        <v>2085017359.61236</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09059921206389501</v>
+        <v>0.07860405322973484</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02802694974672516</v>
+        <v>0.02335407985735856</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2014,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1778536979.838292</v>
+        <v>2412728548.356341</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1199503268131054</v>
+        <v>0.148441908961186</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0423426960449478</v>
+        <v>0.04461848466821744</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2049,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5143409819.338351</v>
+        <v>4380964986.393762</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1189098654724065</v>
+        <v>0.1116773447528532</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05863965726395533</v>
+        <v>0.0473895506077598</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>237</v>
+      </c>
+      <c r="J46" t="n">
+        <v>394</v>
+      </c>
+      <c r="K46" t="n">
+        <v>48.34779893847686</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2086,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3972347834.208999</v>
+        <v>3945350956.992521</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1370865463653142</v>
+        <v>0.1842933111610284</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04440138322444916</v>
+        <v>0.05206018685773232</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>177</v>
+      </c>
+      <c r="J47" t="n">
+        <v>394</v>
+      </c>
+      <c r="K47" t="n">
+        <v>45.64311668246462</v>
       </c>
     </row>
     <row r="48">
@@ -1774,17 +2129,24 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>2990815731.727215</v>
+        <v>2954322410.104715</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08941872770478573</v>
+        <v>0.09074112824975875</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02449940833095628</v>
+        <v>0.03842862405663426</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
       </c>
+      <c r="I48" t="n">
+        <v>204</v>
+      </c>
+      <c r="J48" t="n">
+        <v>393</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2158,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1667213845.279635</v>
+        <v>1368503226.441825</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1573112255854858</v>
+        <v>0.1479509411847122</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03662659027350514</v>
+        <v>0.03412642815136138</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2193,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3991301494.195575</v>
+        <v>4088560764.132773</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1384432407132668</v>
+        <v>0.1303188099323553</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04601879729960268</v>
+        <v>0.05173179635601761</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>134</v>
+      </c>
+      <c r="J50" t="n">
+        <v>395</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2228,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1465664089.252474</v>
+        <v>1138618131.833928</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1454451394448732</v>
+        <v>0.1190938327222867</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04068129949795956</v>
+        <v>0.03967081941442117</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,17 +2269,24 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4418196115.900434</v>
+        <v>3601778719.963326</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1209541454145558</v>
+        <v>0.1341373321409974</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04916727617921215</v>
+        <v>0.05699230043277602</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
       </c>
+      <c r="I52" t="n">
+        <v>230</v>
+      </c>
+      <c r="J52" t="n">
+        <v>393</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1914,17 +2304,24 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2783242925.719156</v>
+        <v>2842729976.650708</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1576649924250832</v>
+        <v>0.1852291485904877</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03428064240949452</v>
+        <v>0.03133908691946995</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>54</v>
+      </c>
+      <c r="J53" t="n">
+        <v>387</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2333,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4903653115.621315</v>
+        <v>4783996314.06898</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1482162250315451</v>
+        <v>0.1603576852934855</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03949921341718295</v>
+        <v>0.03671174121662493</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>210</v>
+      </c>
+      <c r="J54" t="n">
+        <v>395</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,23 +2368,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3342115987.413802</v>
+        <v>3882790065.256877</v>
       </c>
       <c r="F55" t="n">
-        <v>0.155374022543355</v>
+        <v>0.2056702205047331</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02749587488636993</v>
+        <v>0.03109741239756078</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>190</v>
+      </c>
+      <c r="J55" t="n">
+        <v>395</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2403,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1518188040.566854</v>
+        <v>1365585649.188394</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1451367030483727</v>
+        <v>0.1304996557660563</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03548824301380833</v>
+        <v>0.05042240146546569</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2438,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3768471634.898767</v>
+        <v>2945679105.660759</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1539954288265162</v>
+        <v>0.1581539037963407</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01928918626529231</v>
+        <v>0.02077798545180315</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>168</v>
+      </c>
+      <c r="J57" t="n">
+        <v>394</v>
+      </c>
+      <c r="K57" t="n">
+        <v>31.50332212111076</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2475,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1185906092.149599</v>
+        <v>1829675477.480322</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1249806391879767</v>
+        <v>0.1286030955606051</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02465529352045958</v>
+        <v>0.03022624964762562</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2510,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3578663563.700399</v>
+        <v>3574427309.294235</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1244551768901041</v>
+        <v>0.08014465624062272</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0372823617403183</v>
+        <v>0.03635304948396822</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>193</v>
+      </c>
+      <c r="J59" t="n">
+        <v>394</v>
+      </c>
+      <c r="K59" t="n">
+        <v>44.65761566764101</v>
       </c>
     </row>
     <row r="60">
@@ -2110,17 +2553,24 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3688440824.85826</v>
+        <v>2904736936.412928</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1929994361568887</v>
+        <v>0.1831335448465007</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02211180566944064</v>
+        <v>0.02764308435959821</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>72</v>
+      </c>
+      <c r="J60" t="n">
+        <v>391</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2582,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2199085271.088863</v>
+        <v>2335823312.134364</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1413199478066054</v>
+        <v>0.1177976193654345</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0293474625687291</v>
+        <v>0.02892732686207264</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>13</v>
+      </c>
+      <c r="J61" t="n">
+        <v>384</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2617,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1669027083.57688</v>
+        <v>1329134145.664443</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1624416579934974</v>
+        <v>0.1452988657804627</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03456800597071029</v>
+        <v>0.04294060552235813</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2652,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4249894163.543036</v>
+        <v>4576612602.079618</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06957381770517759</v>
+        <v>0.09783439668404326</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03374100335571311</v>
+        <v>0.04734590870169254</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>196</v>
+      </c>
+      <c r="J63" t="n">
+        <v>395</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,23 +2687,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5306352942.435517</v>
+        <v>3745827702.308555</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1211423086910095</v>
+        <v>0.1584434219624552</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0231463513835976</v>
+        <v>0.03049701112663965</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>196</v>
+      </c>
+      <c r="J64" t="n">
+        <v>395</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,22 +2722,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3864339412.42304</v>
+        <v>6010121541.044394</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1635403977437701</v>
+        <v>0.1327323995625949</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02341435032203652</v>
+        <v>0.02631127499770219</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>294</v>
+      </c>
+      <c r="J65" t="n">
+        <v>394</v>
+      </c>
+      <c r="K65" t="n">
+        <v>47.59208454355161</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2759,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4122655791.256921</v>
+        <v>4129774398.306516</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1471152571623809</v>
+        <v>0.1164116799221939</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04238369759160477</v>
+        <v>0.04181829700789625</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>195</v>
+      </c>
+      <c r="J66" t="n">
+        <v>395</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2794,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2137144685.887346</v>
+        <v>2677928406.420631</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09987214139869457</v>
+        <v>0.07375187864650673</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04608526489012989</v>
+        <v>0.03800195106750413</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>11</v>
+      </c>
+      <c r="J67" t="n">
+        <v>389</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2829,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4821521971.124905</v>
+        <v>5026532040.797234</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1498828302080952</v>
+        <v>0.1423970102438642</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03768349009065981</v>
+        <v>0.03154333308335113</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>215</v>
+      </c>
+      <c r="J68" t="n">
+        <v>394</v>
+      </c>
+      <c r="K68" t="n">
+        <v>47.31687769979661</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2866,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2293448285.195356</v>
+        <v>2306473242.375501</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1280760781983503</v>
+        <v>0.1690964869801325</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03771631065358202</v>
+        <v>0.05712003576452505</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2901,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2448684636.740499</v>
+        <v>3663212918.307045</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08132776779399685</v>
+        <v>0.0662815271817709</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04912305028261175</v>
+        <v>0.03964885363231943</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>54</v>
+      </c>
+      <c r="J70" t="n">
+        <v>389</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2418,17 +2942,24 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4592315053.652442</v>
+        <v>4216705616.788912</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1435180497996463</v>
+        <v>0.1312585849740108</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02186660025145678</v>
+        <v>0.02212465443705566</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>280</v>
+      </c>
+      <c r="J71" t="n">
+        <v>395</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2440,23 +2971,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1967183716.543455</v>
+        <v>1932403752.105957</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1066647829542004</v>
+        <v>0.08255651302641731</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03820849460009425</v>
+        <v>0.04312762970406767</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3006,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2574941854.298264</v>
+        <v>2916539889.691</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1081427309939084</v>
+        <v>0.0953371738877113</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05143967521932175</v>
+        <v>0.04169590385208664</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>29</v>
+      </c>
+      <c r="J73" t="n">
+        <v>382</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3041,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3502002052.698822</v>
+        <v>2948148505.767163</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1717711610810215</v>
+        <v>0.1827915168997316</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02262486973306218</v>
+        <v>0.0234733067587483</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>113</v>
+      </c>
+      <c r="J74" t="n">
+        <v>393</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3076,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1583671525.922461</v>
+        <v>2485792523.433558</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1118065085368543</v>
+        <v>0.1488249798749035</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03076072013266568</v>
+        <v>0.03732076420636121</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3111,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4703378193.609173</v>
+        <v>3777603141.296533</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1107883539011195</v>
+        <v>0.1059500995597462</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03282007376848808</v>
+        <v>0.02890684243843359</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>186</v>
+      </c>
+      <c r="J76" t="n">
+        <v>395</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3146,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1863963224.940575</v>
+        <v>2021929739.959447</v>
       </c>
       <c r="F77" t="n">
-        <v>0.121910487351415</v>
+        <v>0.1202616405733969</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02607409610351618</v>
+        <v>0.0271864546127046</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3181,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4276357804.305404</v>
+        <v>3762129514.78932</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1139768919298103</v>
+        <v>0.1009790121962447</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05314488658731152</v>
+        <v>0.03943559267228212</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>197</v>
+      </c>
+      <c r="J78" t="n">
+        <v>394</v>
+      </c>
+      <c r="K78" t="n">
+        <v>48.02910013008498</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3218,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1200611099.768844</v>
+        <v>1185564805.928495</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1493600126980401</v>
+        <v>0.1539149191731998</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0303190452057323</v>
+        <v>0.02447718678183496</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2670,16 +3259,25 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5568518637.960783</v>
+        <v>5223787028.747841</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1032287279270149</v>
+        <v>0.07223187297067588</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03574739438565795</v>
+        <v>0.0348169292482968</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>193</v>
+      </c>
+      <c r="J80" t="n">
+        <v>394</v>
+      </c>
+      <c r="K80" t="n">
+        <v>40.77706868295184</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3290,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4867512238.693216</v>
+        <v>3391779375.345967</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1105253315280636</v>
+        <v>0.1361500675214721</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03208818031362237</v>
+        <v>0.02742256994782906</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>184</v>
+      </c>
+      <c r="J81" t="n">
+        <v>394</v>
+      </c>
+      <c r="K81" t="n">
+        <v>37.7194659194801</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3327,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4255788574.519053</v>
+        <v>4150461025.276792</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1882283359033387</v>
+        <v>0.2087271417926433</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02474723932137611</v>
+        <v>0.01873919945816945</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>271</v>
+      </c>
+      <c r="J82" t="n">
+        <v>395</v>
+      </c>
+      <c r="K82" t="n">
+        <v>50.07817439070008</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3364,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2262836181.091211</v>
+        <v>1632259580.870338</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1276314079545313</v>
+        <v>0.1300131812758265</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03902233067110668</v>
+        <v>0.02823964347750427</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3399,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2417426760.557832</v>
+        <v>2580410648.116511</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08842844387816297</v>
+        <v>0.09924083522443261</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04409783299953323</v>
+        <v>0.04815489438684286</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3434,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2847588285.581404</v>
+        <v>2954057825.177729</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1370636794294742</v>
+        <v>0.1475520302046035</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03706109410012627</v>
+        <v>0.05451658981524658</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>50</v>
+      </c>
+      <c r="J85" t="n">
+        <v>373</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3469,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1927655579.271446</v>
+        <v>1970076560.61684</v>
       </c>
       <c r="F86" t="n">
-        <v>0.112047124460093</v>
+        <v>0.1612715828617801</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02045796343884434</v>
+        <v>0.0207571777517133</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2866,17 +3510,24 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1084641953.19638</v>
+        <v>1088977097.289381</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1907536448282727</v>
+        <v>0.1263212181532313</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02840930990211617</v>
+        <v>0.04372705939862973</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3539,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3047781397.089973</v>
+        <v>3687480680.651565</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1356404083433462</v>
+        <v>0.1331257903141862</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02940374131284384</v>
+        <v>0.03284514925991743</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>50</v>
+      </c>
+      <c r="J88" t="n">
+        <v>395</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3574,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2404711554.283101</v>
+        <v>3125559143.960496</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1525895644007568</v>
+        <v>0.1426186374566666</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02544536919142039</v>
+        <v>0.0354722411208895</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>333</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2950,17 +3615,24 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1328639103.343328</v>
+        <v>1523631282.848576</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1309523463378171</v>
+        <v>0.1229398827066409</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04674391191138805</v>
+        <v>0.0563747891346718</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3644,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1490880909.799206</v>
+        <v>1595557801.88437</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1407030661554036</v>
+        <v>0.1459661421102591</v>
       </c>
       <c r="G91" t="n">
-        <v>0.06181702864312924</v>
+        <v>0.04110643200015335</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3679,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2385837896.833738</v>
+        <v>2417668009.395932</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1033462463763467</v>
+        <v>0.09551165507535581</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04127508409642348</v>
+        <v>0.02962427235689322</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3714,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4665096079.176615</v>
+        <v>4505029133.405817</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1017674144415862</v>
+        <v>0.140137516899347</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05375564191867688</v>
+        <v>0.05395523840036142</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>188</v>
+      </c>
+      <c r="J93" t="n">
+        <v>394</v>
+      </c>
+      <c r="K93" t="n">
+        <v>48.64315190848088</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2167143743.589892</v>
+        <v>1864973267.318779</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1162245166215019</v>
+        <v>0.1671642751704955</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03634171547568327</v>
+        <v>0.0297466574363931</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2256466763.810845</v>
+        <v>2129861235.401644</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1135507899495129</v>
+        <v>0.103019837569175</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05289314100353584</v>
+        <v>0.05108439759363959</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2401754123.962237</v>
+        <v>1778239011.40743</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1338489452148549</v>
+        <v>0.09311943487021782</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04579032020777707</v>
+        <v>0.04443804647806619</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3856,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5061048747.074066</v>
+        <v>3788516215.434644</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1288526226667236</v>
+        <v>0.1281551233394521</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02822745348700715</v>
+        <v>0.02646545681632064</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>206</v>
+      </c>
+      <c r="J97" t="n">
+        <v>395</v>
+      </c>
+      <c r="K97" t="n">
+        <v>50.24713037737384</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2968232449.999636</v>
+        <v>2439659447.280814</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09331571596127061</v>
+        <v>0.08552994608410504</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02426472757097657</v>
+        <v>0.02381183088524092</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>100</v>
+      </c>
+      <c r="J98" t="n">
+        <v>391</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3202,17 +3934,24 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2107083498.490454</v>
+        <v>3031527283.85164</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1219763710572255</v>
+        <v>0.1106237006897192</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02273300920410651</v>
+        <v>0.02854987541557891</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>9</v>
+      </c>
+      <c r="J99" t="n">
+        <v>386</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4190604427.440506</v>
+        <v>4042626887.014806</v>
       </c>
       <c r="F100" t="n">
-        <v>0.170774009998447</v>
+        <v>0.1549033519017711</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02710028011372883</v>
+        <v>0.02494319193038743</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>183</v>
+      </c>
+      <c r="J100" t="n">
+        <v>395</v>
+      </c>
+      <c r="K100" t="n">
+        <v>49.76325668236808</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3445164462.675842</v>
+        <v>3078823835.680697</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2160047071759717</v>
+        <v>0.1965305451391055</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05369305135275506</v>
+        <v>0.05603907373961262</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>37</v>
+      </c>
+      <c r="J101" t="n">
+        <v>393</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
